--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.166130333333334</v>
+        <v>4.688952333333333</v>
       </c>
       <c r="H2">
-        <v>6.498391000000001</v>
+        <v>14.066857</v>
       </c>
       <c r="I2">
-        <v>0.237044430060999</v>
+        <v>0.8812414385524715</v>
       </c>
       <c r="J2">
-        <v>0.237044430060999</v>
+        <v>0.8812414385524715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="N2">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="O2">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="P2">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="Q2">
-        <v>711.5874315173189</v>
+        <v>1377.415879420363</v>
       </c>
       <c r="R2">
-        <v>6404.28688365587</v>
+        <v>12396.74291478327</v>
       </c>
       <c r="S2">
-        <v>0.2248419398320303</v>
+        <v>0.8257017353850864</v>
       </c>
       <c r="T2">
-        <v>0.2255257897619204</v>
+        <v>0.8289490002480702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.166130333333334</v>
+        <v>4.688952333333333</v>
       </c>
       <c r="H3">
-        <v>6.498391000000001</v>
+        <v>14.066857</v>
       </c>
       <c r="I3">
-        <v>0.237044430060999</v>
+        <v>0.8812414385524715</v>
       </c>
       <c r="J3">
-        <v>0.237044430060999</v>
+        <v>0.8812414385524715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.344899</v>
       </c>
       <c r="O3">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="P3">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="Q3">
-        <v>10.35764028416767</v>
+        <v>22.42084921249367</v>
       </c>
       <c r="R3">
-        <v>93.21876255750902</v>
+        <v>201.787642912443</v>
       </c>
       <c r="S3">
-        <v>0.003272727749854812</v>
+        <v>0.01344033735937028</v>
       </c>
       <c r="T3">
-        <v>0.003282681651889101</v>
+        <v>0.01349319462414686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.166130333333334</v>
+        <v>4.688952333333333</v>
       </c>
       <c r="H4">
-        <v>6.498391000000001</v>
+        <v>14.066857</v>
       </c>
       <c r="I4">
-        <v>0.237044430060999</v>
+        <v>0.8812414385524715</v>
       </c>
       <c r="J4">
-        <v>0.237044430060999</v>
+        <v>0.8812414385524715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="N4">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="O4">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="P4">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="Q4">
-        <v>11.03507083031022</v>
+        <v>37.07185433119621</v>
       </c>
       <c r="R4">
-        <v>99.31563747279201</v>
+        <v>333.6466889807659</v>
       </c>
       <c r="S4">
-        <v>0.003486777058976789</v>
+        <v>0.02222298647238851</v>
       </c>
       <c r="T4">
-        <v>0.003497381985482514</v>
+        <v>0.02231038355541473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.166130333333334</v>
+        <v>4.688952333333333</v>
       </c>
       <c r="H5">
-        <v>6.498391000000001</v>
+        <v>14.066857</v>
       </c>
       <c r="I5">
-        <v>0.237044430060999</v>
+        <v>0.8812414385524715</v>
       </c>
       <c r="J5">
-        <v>0.237044430060999</v>
+        <v>0.8812414385524715</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="N5">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="O5">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="P5">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="Q5">
-        <v>6.824432605512667</v>
+        <v>17.2761893242645</v>
       </c>
       <c r="R5">
-        <v>40.946595633076</v>
+        <v>103.657135945587</v>
       </c>
       <c r="S5">
-        <v>0.002156331881810478</v>
+        <v>0.01035633443683647</v>
       </c>
       <c r="T5">
-        <v>0.001441926866483528</v>
+        <v>0.006931375426702144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.166130333333334</v>
+        <v>4.688952333333333</v>
       </c>
       <c r="H6">
-        <v>6.498391000000001</v>
+        <v>14.066857</v>
       </c>
       <c r="I6">
-        <v>0.237044430060999</v>
+        <v>0.8812414385524715</v>
       </c>
       <c r="J6">
-        <v>0.237044430060999</v>
+        <v>0.8812414385524715</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="N6">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="O6">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="P6">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="Q6">
-        <v>10.40171309397311</v>
+        <v>15.88111112576566</v>
       </c>
       <c r="R6">
-        <v>93.615417845758</v>
+        <v>142.930000131891</v>
       </c>
       <c r="S6">
-        <v>0.003286653538326615</v>
+        <v>0.009520044898789959</v>
       </c>
       <c r="T6">
-        <v>0.003296649795223512</v>
+        <v>0.009557484698137662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>6.971947</v>
+        <v>0.6318963333333333</v>
       </c>
       <c r="H7">
-        <v>20.915841</v>
+        <v>1.895689</v>
       </c>
       <c r="I7">
-        <v>0.762955569939001</v>
+        <v>0.1187585614475285</v>
       </c>
       <c r="J7">
-        <v>0.7629555699390009</v>
+        <v>0.1187585614475285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="N7">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="O7">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="P7">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="Q7">
-        <v>2290.328417482824</v>
+        <v>185.6244170991792</v>
       </c>
       <c r="R7">
-        <v>20612.95575734542</v>
+        <v>1670.619753892613</v>
       </c>
       <c r="S7">
-        <v>0.7236804100674016</v>
+        <v>0.1112738756817119</v>
       </c>
       <c r="T7">
-        <v>0.7258814620511067</v>
+        <v>0.1117114861785589</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>6.971947</v>
+        <v>0.6318963333333333</v>
       </c>
       <c r="H8">
-        <v>20.915841</v>
+        <v>1.895689</v>
       </c>
       <c r="I8">
-        <v>0.762955569939001</v>
+        <v>0.1187585614475285</v>
       </c>
       <c r="J8">
-        <v>0.7629555699390009</v>
+        <v>0.1187585614475285</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>14.344899</v>
       </c>
       <c r="O8">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="P8">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="Q8">
-        <v>33.337291849451</v>
+        <v>3.021496360045667</v>
       </c>
       <c r="R8">
-        <v>300.035626645059</v>
+        <v>27.193467240411</v>
       </c>
       <c r="S8">
-        <v>0.01053366183294465</v>
+        <v>0.00181125746060028</v>
       </c>
       <c r="T8">
-        <v>0.0105656996454245</v>
+        <v>0.001818380653464688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>6.971947</v>
+        <v>0.6318963333333333</v>
       </c>
       <c r="H9">
-        <v>20.915841</v>
+        <v>1.895689</v>
       </c>
       <c r="I9">
-        <v>0.762955569939001</v>
+        <v>0.1187585614475285</v>
       </c>
       <c r="J9">
-        <v>0.7629555699390009</v>
+        <v>0.1187585614475285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="N9">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="O9">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="P9">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="Q9">
-        <v>35.51768228635466</v>
+        <v>4.995906794620221</v>
       </c>
       <c r="R9">
-        <v>319.659140577192</v>
+        <v>44.963161151582</v>
       </c>
       <c r="S9">
-        <v>0.01122260488296351</v>
+        <v>0.002994831823687103</v>
       </c>
       <c r="T9">
-        <v>0.01125673809480171</v>
+        <v>0.003006609699080655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>6.971947</v>
+        <v>0.6318963333333333</v>
       </c>
       <c r="H10">
-        <v>20.915841</v>
+        <v>1.895689</v>
       </c>
       <c r="I10">
-        <v>0.762955569939001</v>
+        <v>0.1187585614475285</v>
       </c>
       <c r="J10">
-        <v>0.7629555699390009</v>
+        <v>0.1187585614475285</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="N10">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="O10">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="P10">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="Q10">
-        <v>21.965244518546</v>
+        <v>2.3281876018165</v>
       </c>
       <c r="R10">
-        <v>131.791467111276</v>
+        <v>13.969125610899</v>
       </c>
       <c r="S10">
-        <v>0.006940409523400292</v>
+        <v>0.001395648599557961</v>
       </c>
       <c r="T10">
-        <v>0.00464101237875617</v>
+        <v>0.0009340915423587203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>6.971947</v>
+        <v>0.6318963333333333</v>
       </c>
       <c r="H11">
-        <v>20.915841</v>
+        <v>1.895689</v>
       </c>
       <c r="I11">
-        <v>0.762955569939001</v>
+        <v>0.1187585614475285</v>
       </c>
       <c r="J11">
-        <v>0.7629555699390009</v>
+        <v>0.1187585614475285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="N11">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="O11">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="P11">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="Q11">
-        <v>33.47914540709533</v>
+        <v>2.140182961189666</v>
       </c>
       <c r="R11">
-        <v>301.312308663858</v>
+        <v>19.261646650707</v>
       </c>
       <c r="S11">
-        <v>0.01057848363229096</v>
+        <v>0.001282947881971235</v>
       </c>
       <c r="T11">
-        <v>0.01061065776891195</v>
+        <v>0.00128799337406557</v>
       </c>
     </row>
   </sheetData>
